--- a/Code/Results/Cases/Case_0_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9355960371019022</v>
+        <v>1.032252136799856</v>
       </c>
       <c r="D2">
-        <v>0.9486786520147794</v>
+        <v>1.033248583514515</v>
       </c>
       <c r="E2">
-        <v>0.9497787362927304</v>
+        <v>1.039769076285848</v>
       </c>
       <c r="F2">
-        <v>0.935842195515182</v>
+        <v>1.046118930338881</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029766299850242</v>
+        <v>1.025700725390273</v>
       </c>
       <c r="J2">
-        <v>0.9598898685925146</v>
+        <v>1.037383380229097</v>
       </c>
       <c r="K2">
-        <v>0.960902509498894</v>
+        <v>1.036051478509139</v>
       </c>
       <c r="L2">
-        <v>0.9619850963016131</v>
+        <v>1.042553323767552</v>
       </c>
       <c r="M2">
-        <v>0.94827413597092</v>
+        <v>1.04888526071227</v>
       </c>
       <c r="N2">
-        <v>0.9906029110025399</v>
+        <v>1.016376239474715</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9500387859219951</v>
+        <v>1.03426545083285</v>
       </c>
       <c r="D3">
-        <v>0.9613918199173447</v>
+        <v>1.035056343937699</v>
       </c>
       <c r="E3">
-        <v>0.9637244918652362</v>
+        <v>1.041645668744029</v>
       </c>
       <c r="F3">
-        <v>0.9539453530914358</v>
+        <v>1.048312227379284</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034282712172084</v>
+        <v>1.025940528533644</v>
       </c>
       <c r="J3">
-        <v>0.971990739765607</v>
+        <v>1.039033510198414</v>
       </c>
       <c r="K3">
-        <v>0.9725437550192561</v>
+        <v>1.03766551470421</v>
       </c>
       <c r="L3">
-        <v>0.9748435756635909</v>
+        <v>1.04423739605583</v>
       </c>
       <c r="M3">
-        <v>0.9652035193673942</v>
+        <v>1.05088654771063</v>
       </c>
       <c r="N3">
-        <v>0.9946242660792047</v>
+        <v>1.016923269456327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9586125337886292</v>
+        <v>1.035555253493322</v>
       </c>
       <c r="D4">
-        <v>0.9689402630515503</v>
+        <v>1.036214436524599</v>
       </c>
       <c r="E4">
-        <v>0.9719625336108243</v>
+        <v>1.042845136549768</v>
       </c>
       <c r="F4">
-        <v>0.9645394689288979</v>
+        <v>1.049707704106653</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036863901012584</v>
+        <v>1.026084975133559</v>
       </c>
       <c r="J4">
-        <v>0.9791376441574029</v>
+        <v>1.040088242263495</v>
       </c>
       <c r="K4">
-        <v>0.9794285926984488</v>
+        <v>1.038697859055451</v>
       </c>
       <c r="L4">
-        <v>0.9824115542584301</v>
+        <v>1.045311912964725</v>
       </c>
       <c r="M4">
-        <v>0.9750855897104299</v>
+        <v>1.052157490626605</v>
       </c>
       <c r="N4">
-        <v>0.9969997741716005</v>
+        <v>1.017272843634881</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9620616427953235</v>
+        <v>1.036094442021017</v>
       </c>
       <c r="D5">
-        <v>0.9719772784365009</v>
+        <v>1.036698558276703</v>
       </c>
       <c r="E5">
-        <v>0.9752679529878803</v>
+        <v>1.043345901714556</v>
       </c>
       <c r="F5">
-        <v>0.9687688826186706</v>
+        <v>1.050288757205262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03787945840331</v>
+        <v>1.026143146794347</v>
       </c>
       <c r="J5">
-        <v>0.9820048140177283</v>
+        <v>1.040528584891023</v>
       </c>
       <c r="K5">
-        <v>0.982192675901722</v>
+        <v>1.039129019223672</v>
       </c>
       <c r="L5">
-        <v>0.9854419722360441</v>
+        <v>1.045760055748595</v>
       </c>
       <c r="M5">
-        <v>0.9790249617108525</v>
+        <v>1.052686116223936</v>
       </c>
       <c r="N5">
-        <v>0.9979528331420785</v>
+        <v>1.01741876960325</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9626323546238319</v>
+        <v>1.036184797167301</v>
       </c>
       <c r="D6">
-        <v>0.9724798248209054</v>
+        <v>1.036779685123694</v>
       </c>
       <c r="E6">
-        <v>0.9758144061060644</v>
+        <v>1.0434297792262</v>
       </c>
       <c r="F6">
-        <v>0.9694668938951126</v>
+        <v>1.05038599202963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038046180148023</v>
+        <v>1.026152764683142</v>
       </c>
       <c r="J6">
-        <v>0.9824787865577785</v>
+        <v>1.040602341889456</v>
       </c>
       <c r="K6">
-        <v>0.9826497229834247</v>
+        <v>1.039201247832036</v>
       </c>
       <c r="L6">
-        <v>0.98594261215111</v>
+        <v>1.045835092199506</v>
       </c>
       <c r="M6">
-        <v>0.9796747704168521</v>
+        <v>1.05277454381731</v>
       </c>
       <c r="N6">
-        <v>0.9981103859696002</v>
+        <v>1.017443210977894</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9586591986284196</v>
+        <v>1.035562470047767</v>
       </c>
       <c r="D7">
-        <v>0.9689813509504689</v>
+        <v>1.036220916087356</v>
       </c>
       <c r="E7">
-        <v>0.9720072876907703</v>
+        <v>1.042851841443845</v>
       </c>
       <c r="F7">
-        <v>0.9645968160542728</v>
+        <v>1.049715490091868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036877731018066</v>
+        <v>1.026085762443314</v>
       </c>
       <c r="J7">
-        <v>0.9791764664209831</v>
+        <v>1.040094138129943</v>
       </c>
       <c r="K7">
-        <v>0.9794660111761611</v>
+        <v>1.038703631327227</v>
       </c>
       <c r="L7">
-        <v>0.9824526089337159</v>
+        <v>1.045317915085016</v>
       </c>
       <c r="M7">
-        <v>0.9751390270069681</v>
+        <v>1.052164576366942</v>
       </c>
       <c r="N7">
-        <v>0.9970126786615749</v>
+        <v>1.017274797550558</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9406577451631365</v>
+        <v>1.032935260034086</v>
       </c>
       <c r="D8">
-        <v>0.9531339153009118</v>
+        <v>1.03386196654224</v>
       </c>
       <c r="E8">
-        <v>0.9546760348542158</v>
+        <v>1.040406380646978</v>
       </c>
       <c r="F8">
-        <v>0.9422233442564487</v>
+        <v>1.046865126697598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031371956051938</v>
+        <v>1.025783996397267</v>
       </c>
       <c r="J8">
-        <v>0.964139498186378</v>
+        <v>1.037943773548519</v>
       </c>
       <c r="K8">
-        <v>0.9649885051563556</v>
+        <v>1.036599472067835</v>
       </c>
       <c r="L8">
-        <v>0.966507083294861</v>
+        <v>1.043125641580771</v>
       </c>
       <c r="M8">
-        <v>0.9542473077379365</v>
+        <v>1.049566624124195</v>
       </c>
       <c r="N8">
-        <v>0.9920150110250818</v>
+        <v>1.016562029915166</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9008712587497599</v>
+        <v>1.028204050616421</v>
       </c>
       <c r="D9">
-        <v>0.9181157723541167</v>
+        <v>1.029613693176449</v>
       </c>
       <c r="E9">
-        <v>0.915887986600167</v>
+        <v>1.035981110292742</v>
       </c>
       <c r="F9">
-        <v>0.8909757641982764</v>
+        <v>1.041657024631261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018155560085012</v>
+        <v>1.025169469285779</v>
       </c>
       <c r="J9">
-        <v>0.930485376068345</v>
+        <v>1.034052610371359</v>
       </c>
       <c r="K9">
-        <v>0.9326935044873341</v>
+        <v>1.032797245622586</v>
       </c>
       <c r="L9">
-        <v>0.9305110027377201</v>
+        <v>1.039143749692325</v>
       </c>
       <c r="M9">
-        <v>0.9061256823681623</v>
+        <v>1.044801258229978</v>
       </c>
       <c r="N9">
-        <v>0.9808379393691538</v>
+        <v>1.015271652466504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8620590532725519</v>
+        <v>1.024977738195995</v>
       </c>
       <c r="D10">
-        <v>0.8839242634449443</v>
+        <v>1.026716640656763</v>
       </c>
       <c r="E10">
-        <v>0.8773126889091295</v>
+        <v>1.032949065558033</v>
       </c>
       <c r="F10">
-        <v>0.8383126616949089</v>
+        <v>1.038054937020859</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.004045378177602</v>
+        <v>1.024703110450822</v>
       </c>
       <c r="J10">
-        <v>0.8970605007609688</v>
+        <v>1.031386596988061</v>
       </c>
       <c r="K10">
-        <v>0.9007615448106033</v>
+        <v>1.030195738813927</v>
       </c>
       <c r="L10">
-        <v>0.8943171751739358</v>
+        <v>1.036405600294665</v>
       </c>
       <c r="M10">
-        <v>0.8563771532797727</v>
+        <v>1.041493209578412</v>
       </c>
       <c r="N10">
-        <v>0.9697554624613014</v>
+        <v>1.014387160495711</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8352209253199773</v>
+        <v>1.023562700111043</v>
       </c>
       <c r="D11">
-        <v>0.8602173170131886</v>
+        <v>1.025446007154784</v>
       </c>
       <c r="E11">
-        <v>0.8500709560636234</v>
+        <v>1.031615829815181</v>
       </c>
       <c r="F11">
-        <v>0.7999217365015101</v>
+        <v>1.036463073555343</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9935476570815528</v>
+        <v>1.024487473943922</v>
       </c>
       <c r="J11">
-        <v>0.8735176083941405</v>
+        <v>1.030214332395829</v>
       </c>
       <c r="K11">
-        <v>0.8783635573057986</v>
+        <v>1.029052682203049</v>
       </c>
       <c r="L11">
-        <v>0.8685080446287472</v>
+        <v>1.035199262676302</v>
       </c>
       <c r="M11">
-        <v>0.8199482966017868</v>
+        <v>1.040028461268431</v>
       </c>
       <c r="N11">
-        <v>0.9619649009177169</v>
+        <v>1.013998151440986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8182577115122797</v>
+        <v>1.023034304037809</v>
       </c>
       <c r="D12">
-        <v>0.8451786855190269</v>
+        <v>1.02497153359019</v>
       </c>
       <c r="E12">
-        <v>0.8325236566597179</v>
+        <v>1.031117468662883</v>
       </c>
       <c r="F12">
-        <v>0.7745486182851365</v>
+        <v>1.035866840443401</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9865261933484825</v>
+        <v>1.024405294651763</v>
       </c>
       <c r="J12">
-        <v>0.8583957330268066</v>
+        <v>1.029776145536082</v>
       </c>
       <c r="K12">
-        <v>0.8640244827709889</v>
+        <v>1.028625539776245</v>
       </c>
       <c r="L12">
-        <v>0.8517583197919351</v>
+        <v>1.034747986393466</v>
       </c>
       <c r="M12">
-        <v>0.7957954370930418</v>
+        <v>1.039479418589331</v>
       </c>
       <c r="N12">
-        <v>0.9569692959773634</v>
+        <v>1.0138527281223</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8228451014772818</v>
+        <v>1.023147774275446</v>
       </c>
       <c r="D13">
-        <v>0.8492512626012594</v>
+        <v>1.02507342425928</v>
       </c>
       <c r="E13">
-        <v>0.8372990455890486</v>
+        <v>1.031224512187213</v>
       </c>
       <c r="F13">
-        <v>0.7815099978156974</v>
+        <v>1.035994960132801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9884594054763397</v>
+        <v>1.024423017021295</v>
       </c>
       <c r="J13">
-        <v>0.8625069910093734</v>
+        <v>1.029870263993233</v>
       </c>
       <c r="K13">
-        <v>0.8679188647701062</v>
+        <v>1.028717280268619</v>
       </c>
       <c r="L13">
-        <v>0.8563273459155326</v>
+        <v>1.034844932293791</v>
       </c>
       <c r="M13">
-        <v>0.8024284493032046</v>
+        <v>1.039597416854367</v>
       </c>
       <c r="N13">
-        <v>0.9583267560611284</v>
+        <v>1.013883964309158</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8341087637971162</v>
+        <v>1.023519080076398</v>
       </c>
       <c r="D14">
-        <v>0.859232938133306</v>
+        <v>1.025406838521111</v>
       </c>
       <c r="E14">
-        <v>0.8489293180990769</v>
+        <v>1.031574699631503</v>
       </c>
       <c r="F14">
-        <v>0.7982875839509275</v>
+        <v>1.036413890292804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.993097455543446</v>
+        <v>1.024480723601231</v>
       </c>
       <c r="J14">
-        <v>0.872532593433333</v>
+        <v>1.030178168374869</v>
       </c>
       <c r="K14">
-        <v>0.8774283257144296</v>
+        <v>1.029017427113265</v>
       </c>
       <c r="L14">
-        <v>0.8674214782624681</v>
+        <v>1.035162025557674</v>
       </c>
       <c r="M14">
-        <v>0.8183946345336204</v>
+        <v>1.039983179277948</v>
       </c>
       <c r="N14">
-        <v>0.9616392808007745</v>
+        <v>1.013986149777962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8396260073189873</v>
+        <v>1.023747481949644</v>
       </c>
       <c r="D15">
-        <v>0.8641144327636866</v>
+        <v>1.025611932098667</v>
       </c>
       <c r="E15">
-        <v>0.8545818384033677</v>
+        <v>1.03179004332908</v>
       </c>
       <c r="F15">
-        <v>0.8063575145406533</v>
+        <v>1.036671348269388</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9953180547233692</v>
+        <v>1.0245160018584</v>
       </c>
       <c r="J15">
-        <v>0.8774110621341924</v>
+        <v>1.030367511075592</v>
       </c>
       <c r="K15">
-        <v>0.8820617868405661</v>
+        <v>1.029202016126633</v>
       </c>
       <c r="L15">
-        <v>0.8727972335817785</v>
+        <v>1.035356972218185</v>
       </c>
       <c r="M15">
-        <v>0.8260646281737657</v>
+        <v>1.04022019825445</v>
       </c>
       <c r="N15">
-        <v>0.9632522499932079</v>
+        <v>1.014048985910909</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8634752244812888</v>
+        <v>1.025071263124915</v>
       </c>
       <c r="D16">
-        <v>0.8851732397686027</v>
+        <v>1.026800621293001</v>
       </c>
       <c r="E16">
-        <v>0.8787356005489789</v>
+        <v>1.033037112555189</v>
       </c>
       <c r="F16">
-        <v>0.8402884658305995</v>
+        <v>1.038159896916519</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.004581383864351</v>
+        <v>1.024717130880048</v>
       </c>
       <c r="J16">
-        <v>0.8982919359321799</v>
+        <v>1.031464013915815</v>
       </c>
       <c r="K16">
-        <v>0.9019353331679438</v>
+        <v>1.030271244491141</v>
       </c>
       <c r="L16">
-        <v>0.8956593397015542</v>
+        <v>1.036485218175436</v>
       </c>
       <c r="M16">
-        <v>0.8582483393740089</v>
+        <v>1.041589729358963</v>
       </c>
       <c r="N16">
-        <v>0.9701633419280768</v>
+        <v>1.01441284893718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8749449940218973</v>
+        <v>1.025896755271934</v>
       </c>
       <c r="D17">
-        <v>0.8952838790420983</v>
+        <v>1.027541870659687</v>
       </c>
       <c r="E17">
-        <v>0.8902136175719234</v>
+        <v>1.03381386369938</v>
       </c>
       <c r="F17">
-        <v>0.8561289542015106</v>
+        <v>1.039084940380523</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.008861911922405</v>
+        <v>1.024839609486917</v>
       </c>
       <c r="J17">
-        <v>0.908230316824278</v>
+        <v>1.032146989035638</v>
       </c>
       <c r="K17">
-        <v>0.911416091161568</v>
+        <v>1.030937455176434</v>
       </c>
       <c r="L17">
-        <v>0.906465719009858</v>
+        <v>1.037187340489521</v>
       </c>
       <c r="M17">
-        <v>0.8732371147057728</v>
+        <v>1.042440064757872</v>
       </c>
       <c r="N17">
-        <v>0.9734564229986601</v>
+        <v>1.014639462859229</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8809452960280671</v>
+        <v>1.026376517469418</v>
       </c>
       <c r="D18">
-        <v>0.9005702300922281</v>
+        <v>1.02797267169874</v>
       </c>
       <c r="E18">
-        <v>0.8961873099006784</v>
+        <v>1.034264972706947</v>
       </c>
       <c r="F18">
-        <v>0.8643069443585382</v>
+        <v>1.039621410105515</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011059315250269</v>
+        <v>1.024909729045779</v>
       </c>
       <c r="J18">
-        <v>0.9134057813734695</v>
+        <v>1.032543638362052</v>
       </c>
       <c r="K18">
-        <v>0.9163584876021679</v>
+        <v>1.03132444897694</v>
       </c>
       <c r="L18">
-        <v>0.9120758393691104</v>
+        <v>1.037594884745109</v>
       </c>
       <c r="M18">
-        <v>0.8809662239289495</v>
+        <v>1.042932938337951</v>
       </c>
       <c r="N18">
-        <v>0.9751721566856059</v>
+        <v>1.014771063929198</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8828992208667266</v>
+        <v>1.026539812336336</v>
       </c>
       <c r="D19">
-        <v>0.902291314262388</v>
+        <v>1.028119301704684</v>
       </c>
       <c r="E19">
-        <v>0.8981282499491209</v>
+        <v>1.034418459742829</v>
       </c>
       <c r="F19">
-        <v>0.8669546863874519</v>
+        <v>1.03980381130804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011768781611976</v>
+        <v>1.024933414785606</v>
       </c>
       <c r="J19">
-        <v>0.9150877606927188</v>
+        <v>1.032678596168593</v>
       </c>
       <c r="K19">
-        <v>0.9179654782716894</v>
+        <v>1.031456135237507</v>
       </c>
       <c r="L19">
-        <v>0.9138966147357556</v>
+        <v>1.03773351128459</v>
       </c>
       <c r="M19">
-        <v>0.8834672679678656</v>
+        <v>1.043100470803958</v>
       </c>
       <c r="N19">
-        <v>0.9757298723826279</v>
+        <v>1.014815838991409</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8737925750368634</v>
+        <v>1.025808367638961</v>
       </c>
       <c r="D20">
-        <v>0.894268375476991</v>
+        <v>1.027462503188586</v>
       </c>
       <c r="E20">
-        <v>0.8890639559407137</v>
+        <v>1.033730728634468</v>
       </c>
       <c r="F20">
-        <v>0.8545499719559438</v>
+        <v>1.038986012661765</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.008436622483756</v>
+        <v>1.024826605408214</v>
       </c>
       <c r="J20">
-        <v>0.9072345020357776</v>
+        <v>1.032073890530873</v>
       </c>
       <c r="K20">
-        <v>0.9104655279458126</v>
+        <v>1.030866142601187</v>
       </c>
       <c r="L20">
-        <v>0.905384936773497</v>
+        <v>1.037112215989463</v>
       </c>
       <c r="M20">
-        <v>0.8717440748291598</v>
+        <v>1.042349154559873</v>
       </c>
       <c r="N20">
-        <v>0.9731263618700836</v>
+        <v>1.014615209387478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8311714609880778</v>
+        <v>1.023409817393968</v>
       </c>
       <c r="D21">
-        <v>0.8566321525965065</v>
+        <v>1.025308726033996</v>
       </c>
       <c r="E21">
-        <v>0.8459085912626702</v>
+        <v>1.031471665461338</v>
       </c>
       <c r="F21">
-        <v>0.7939529835142656</v>
+        <v>1.036290663246122</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9919019760494354</v>
+        <v>1.024463788134388</v>
       </c>
       <c r="J21">
-        <v>0.869927020277602</v>
+        <v>1.030087574870419</v>
       </c>
       <c r="K21">
-        <v>0.8749552220284817</v>
+        <v>1.02892911258971</v>
       </c>
       <c r="L21">
-        <v>0.8645444082437805</v>
+        <v>1.035068738171669</v>
       </c>
       <c r="M21">
-        <v>0.8142722995962208</v>
+        <v>1.039869719973336</v>
       </c>
       <c r="N21">
-        <v>0.9607780854253183</v>
+        <v>1.013956084519799</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8311714609880778</v>
+        <v>1.021885581266746</v>
       </c>
       <c r="D22">
-        <v>0.8566321525965065</v>
+        <v>1.023940037490513</v>
       </c>
       <c r="E22">
-        <v>0.8459085912626702</v>
+        <v>1.030033103529424</v>
       </c>
       <c r="F22">
-        <v>0.7939529835142656</v>
+        <v>1.034567323000504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9919019760494354</v>
+        <v>1.0242236098894</v>
       </c>
       <c r="J22">
-        <v>0.869927020277602</v>
+        <v>1.028822718284323</v>
       </c>
       <c r="K22">
-        <v>0.8749552220284817</v>
+        <v>1.027696375626781</v>
       </c>
       <c r="L22">
-        <v>0.8645444082437805</v>
+        <v>1.033765431481132</v>
       </c>
       <c r="M22">
-        <v>0.8142722995962208</v>
+        <v>1.038281987341769</v>
       </c>
       <c r="N22">
-        <v>0.9607780854253183</v>
+        <v>1.013536284590724</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8311714609880778</v>
+        <v>1.022695168332372</v>
       </c>
       <c r="D23">
-        <v>0.8566321525965065</v>
+        <v>1.024667006484618</v>
       </c>
       <c r="E23">
-        <v>0.8459085912626702</v>
+        <v>1.030797465964464</v>
       </c>
       <c r="F23">
-        <v>0.7939529835142656</v>
+        <v>1.03548365589721</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9919019760494354</v>
+        <v>1.024352084591047</v>
       </c>
       <c r="J23">
-        <v>0.869927020277602</v>
+        <v>1.029494782401551</v>
       </c>
       <c r="K23">
-        <v>0.8749552220284817</v>
+        <v>1.028351304006797</v>
       </c>
       <c r="L23">
-        <v>0.8645444082437805</v>
+        <v>1.034458119049775</v>
       </c>
       <c r="M23">
-        <v>0.8142722995962208</v>
+        <v>1.039126444230045</v>
       </c>
       <c r="N23">
-        <v>0.9607780854253183</v>
+        <v>1.013759346888431</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8311714609880778</v>
+        <v>1.025848311557466</v>
       </c>
       <c r="D24">
-        <v>0.8566321525965065</v>
+        <v>1.027498370740167</v>
       </c>
       <c r="E24">
-        <v>0.8459085912626702</v>
+        <v>1.033768299833666</v>
       </c>
       <c r="F24">
-        <v>0.7939529835142656</v>
+        <v>1.039030723388641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9919019760494354</v>
+        <v>1.02483248546957</v>
       </c>
       <c r="J24">
-        <v>0.869927020277602</v>
+        <v>1.032106925904836</v>
       </c>
       <c r="K24">
-        <v>0.8749552220284817</v>
+        <v>1.030898370610973</v>
       </c>
       <c r="L24">
-        <v>0.8645444082437805</v>
+        <v>1.037146167667583</v>
       </c>
       <c r="M24">
-        <v>0.8142722995962208</v>
+        <v>1.042390242576918</v>
       </c>
       <c r="N24">
-        <v>0.9607780854253183</v>
+        <v>1.014626170275145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8311714609880778</v>
+        <v>1.029439614656974</v>
       </c>
       <c r="D25">
-        <v>0.8566321525965065</v>
+        <v>1.030723151865712</v>
       </c>
       <c r="E25">
-        <v>0.8459085912626702</v>
+        <v>1.037139284585103</v>
       </c>
       <c r="F25">
-        <v>0.7939529835142656</v>
+        <v>1.043025948746921</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9919019760494354</v>
+        <v>1.025338248163195</v>
       </c>
       <c r="J25">
-        <v>0.869927020277602</v>
+        <v>1.035070986013849</v>
       </c>
       <c r="K25">
-        <v>0.8749552220284817</v>
+        <v>1.033791722185767</v>
       </c>
       <c r="L25">
-        <v>0.8645444082437805</v>
+        <v>1.040187610817905</v>
       </c>
       <c r="M25">
-        <v>0.8142722995962208</v>
+        <v>1.046055940755048</v>
       </c>
       <c r="N25">
-        <v>0.9607780854253183</v>
+        <v>1.015609433032043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032252136799856</v>
+        <v>0.935596037101903</v>
       </c>
       <c r="D2">
-        <v>1.033248583514515</v>
+        <v>0.9486786520147801</v>
       </c>
       <c r="E2">
-        <v>1.039769076285848</v>
+        <v>0.9497787362927307</v>
       </c>
       <c r="F2">
-        <v>1.046118930338881</v>
+        <v>0.9358421955151822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025700725390273</v>
+        <v>1.029766299850242</v>
       </c>
       <c r="J2">
-        <v>1.037383380229097</v>
+        <v>0.9598898685925151</v>
       </c>
       <c r="K2">
-        <v>1.036051478509139</v>
+        <v>0.9609025094988946</v>
       </c>
       <c r="L2">
-        <v>1.042553323767552</v>
+        <v>0.9619850963016134</v>
       </c>
       <c r="M2">
-        <v>1.04888526071227</v>
+        <v>0.9482741359709204</v>
       </c>
       <c r="N2">
-        <v>1.016376239474715</v>
+        <v>0.9906029110025401</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03426545083285</v>
+        <v>0.950038785921997</v>
       </c>
       <c r="D3">
-        <v>1.035056343937699</v>
+        <v>0.9613918199173461</v>
       </c>
       <c r="E3">
-        <v>1.041645668744029</v>
+        <v>0.963724491865238</v>
       </c>
       <c r="F3">
-        <v>1.048312227379284</v>
+        <v>0.9539453530914377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025940528533644</v>
+        <v>1.034282712172084</v>
       </c>
       <c r="J3">
-        <v>1.039033510198414</v>
+        <v>0.9719907397656086</v>
       </c>
       <c r="K3">
-        <v>1.03766551470421</v>
+        <v>0.9725437550192576</v>
       </c>
       <c r="L3">
-        <v>1.04423739605583</v>
+        <v>0.9748435756635928</v>
       </c>
       <c r="M3">
-        <v>1.05088654771063</v>
+        <v>0.9652035193673961</v>
       </c>
       <c r="N3">
-        <v>1.016923269456327</v>
+        <v>0.9946242660792054</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035555253493322</v>
+        <v>0.9586125337886295</v>
       </c>
       <c r="D4">
-        <v>1.036214436524599</v>
+        <v>0.9689402630515502</v>
       </c>
       <c r="E4">
-        <v>1.042845136549768</v>
+        <v>0.9719625336108246</v>
       </c>
       <c r="F4">
-        <v>1.049707704106653</v>
+        <v>0.9645394689288982</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026084975133559</v>
+        <v>1.036863901012584</v>
       </c>
       <c r="J4">
-        <v>1.040088242263495</v>
+        <v>0.9791376441574031</v>
       </c>
       <c r="K4">
-        <v>1.038697859055451</v>
+        <v>0.979428592698449</v>
       </c>
       <c r="L4">
-        <v>1.045311912964725</v>
+        <v>0.9824115542584302</v>
       </c>
       <c r="M4">
-        <v>1.052157490626605</v>
+        <v>0.9750855897104302</v>
       </c>
       <c r="N4">
-        <v>1.017272843634881</v>
+        <v>0.9969997741716007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036094442021017</v>
+        <v>0.9620616427953215</v>
       </c>
       <c r="D5">
-        <v>1.036698558276703</v>
+        <v>0.9719772784364991</v>
       </c>
       <c r="E5">
-        <v>1.043345901714556</v>
+        <v>0.9752679529878784</v>
       </c>
       <c r="F5">
-        <v>1.050288757205262</v>
+        <v>0.9687688826186686</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026143146794347</v>
+        <v>1.03787945840331</v>
       </c>
       <c r="J5">
-        <v>1.040528584891023</v>
+        <v>0.9820048140177263</v>
       </c>
       <c r="K5">
-        <v>1.039129019223672</v>
+        <v>0.9821926759017201</v>
       </c>
       <c r="L5">
-        <v>1.045760055748595</v>
+        <v>0.9854419722360421</v>
       </c>
       <c r="M5">
-        <v>1.052686116223936</v>
+        <v>0.9790249617108503</v>
       </c>
       <c r="N5">
-        <v>1.01741876960325</v>
+        <v>0.9979528331420778</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036184797167301</v>
+        <v>0.9626323546238317</v>
       </c>
       <c r="D6">
-        <v>1.036779685123694</v>
+        <v>0.972479824820905</v>
       </c>
       <c r="E6">
-        <v>1.0434297792262</v>
+        <v>0.975814406106064</v>
       </c>
       <c r="F6">
-        <v>1.05038599202963</v>
+        <v>0.9694668938951121</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026152764683142</v>
+        <v>1.038046180148023</v>
       </c>
       <c r="J6">
-        <v>1.040602341889456</v>
+        <v>0.9824787865577783</v>
       </c>
       <c r="K6">
-        <v>1.039201247832036</v>
+        <v>0.9826497229834243</v>
       </c>
       <c r="L6">
-        <v>1.045835092199506</v>
+        <v>0.9859426121511097</v>
       </c>
       <c r="M6">
-        <v>1.05277454381731</v>
+        <v>0.9796747704168516</v>
       </c>
       <c r="N6">
-        <v>1.017443210977894</v>
+        <v>0.9981103859696</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035562470047767</v>
+        <v>0.9586591986284193</v>
       </c>
       <c r="D7">
-        <v>1.036220916087356</v>
+        <v>0.9689813509504686</v>
       </c>
       <c r="E7">
-        <v>1.042851841443845</v>
+        <v>0.9720072876907699</v>
       </c>
       <c r="F7">
-        <v>1.049715490091868</v>
+        <v>0.9645968160542726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026085762443314</v>
+        <v>1.036877731018066</v>
       </c>
       <c r="J7">
-        <v>1.040094138129943</v>
+        <v>0.9791764664209828</v>
       </c>
       <c r="K7">
-        <v>1.038703631327227</v>
+        <v>0.9794660111761607</v>
       </c>
       <c r="L7">
-        <v>1.045317915085016</v>
+        <v>0.9824526089337156</v>
       </c>
       <c r="M7">
-        <v>1.052164576366942</v>
+        <v>0.975139027006968</v>
       </c>
       <c r="N7">
-        <v>1.017274797550558</v>
+        <v>0.9970126786615748</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032935260034086</v>
+        <v>0.9406577451631337</v>
       </c>
       <c r="D8">
-        <v>1.03386196654224</v>
+        <v>0.9531339153009095</v>
       </c>
       <c r="E8">
-        <v>1.040406380646978</v>
+        <v>0.9546760348542133</v>
       </c>
       <c r="F8">
-        <v>1.046865126697598</v>
+        <v>0.9422233442564465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025783996397267</v>
+        <v>1.031371956051939</v>
       </c>
       <c r="J8">
-        <v>1.037943773548519</v>
+        <v>0.9641394981863753</v>
       </c>
       <c r="K8">
-        <v>1.036599472067835</v>
+        <v>0.9649885051563535</v>
       </c>
       <c r="L8">
-        <v>1.043125641580771</v>
+        <v>0.9665070832948585</v>
       </c>
       <c r="M8">
-        <v>1.049566624124195</v>
+        <v>0.9542473077379343</v>
       </c>
       <c r="N8">
-        <v>1.016562029915166</v>
+        <v>0.9920150110250811</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028204050616421</v>
+        <v>0.9008712587497592</v>
       </c>
       <c r="D9">
-        <v>1.029613693176449</v>
+        <v>0.9181157723541157</v>
       </c>
       <c r="E9">
-        <v>1.035981110292742</v>
+        <v>0.915887986600166</v>
       </c>
       <c r="F9">
-        <v>1.041657024631261</v>
+        <v>0.8909757641982754</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025169469285779</v>
+        <v>1.018155560085012</v>
       </c>
       <c r="J9">
-        <v>1.034052610371359</v>
+        <v>0.9304853760683442</v>
       </c>
       <c r="K9">
-        <v>1.032797245622586</v>
+        <v>0.9326935044873333</v>
       </c>
       <c r="L9">
-        <v>1.039143749692325</v>
+        <v>0.9305110027377194</v>
       </c>
       <c r="M9">
-        <v>1.044801258229978</v>
+        <v>0.9061256823681614</v>
       </c>
       <c r="N9">
-        <v>1.015271652466504</v>
+        <v>0.9808379393691535</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024977738195995</v>
+        <v>0.8620590532725515</v>
       </c>
       <c r="D10">
-        <v>1.026716640656763</v>
+        <v>0.8839242634449438</v>
       </c>
       <c r="E10">
-        <v>1.032949065558033</v>
+        <v>0.8773126889091288</v>
       </c>
       <c r="F10">
-        <v>1.038054937020859</v>
+        <v>0.8383126616949079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024703110450822</v>
+        <v>1.004045378177602</v>
       </c>
       <c r="J10">
-        <v>1.031386596988061</v>
+        <v>0.8970605007609683</v>
       </c>
       <c r="K10">
-        <v>1.030195738813927</v>
+        <v>0.9007615448106028</v>
       </c>
       <c r="L10">
-        <v>1.036405600294665</v>
+        <v>0.8943171751739351</v>
       </c>
       <c r="M10">
-        <v>1.041493209578412</v>
+        <v>0.8563771532797719</v>
       </c>
       <c r="N10">
-        <v>1.014387160495711</v>
+        <v>0.9697554624613012</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023562700111043</v>
+        <v>0.8352209253199774</v>
       </c>
       <c r="D11">
-        <v>1.025446007154784</v>
+        <v>0.8602173170131887</v>
       </c>
       <c r="E11">
-        <v>1.031615829815181</v>
+        <v>0.8500709560636236</v>
       </c>
       <c r="F11">
-        <v>1.036463073555343</v>
+        <v>0.7999217365015107</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024487473943922</v>
+        <v>0.993547657081553</v>
       </c>
       <c r="J11">
-        <v>1.030214332395829</v>
+        <v>0.8735176083941406</v>
       </c>
       <c r="K11">
-        <v>1.029052682203049</v>
+        <v>0.8783635573057987</v>
       </c>
       <c r="L11">
-        <v>1.035199262676302</v>
+        <v>0.8685080446287474</v>
       </c>
       <c r="M11">
-        <v>1.040028461268431</v>
+        <v>0.8199482966017874</v>
       </c>
       <c r="N11">
-        <v>1.013998151440986</v>
+        <v>0.9619649009177169</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023034304037809</v>
+        <v>0.8182577115122845</v>
       </c>
       <c r="D12">
-        <v>1.02497153359019</v>
+        <v>0.8451786855190315</v>
       </c>
       <c r="E12">
-        <v>1.031117468662883</v>
+        <v>0.8325236566597228</v>
       </c>
       <c r="F12">
-        <v>1.035866840443401</v>
+        <v>0.7745486182851429</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024405294651763</v>
+        <v>0.9865261933484841</v>
       </c>
       <c r="J12">
-        <v>1.029776145536082</v>
+        <v>0.8583957330268112</v>
       </c>
       <c r="K12">
-        <v>1.028625539776245</v>
+        <v>0.8640244827709933</v>
       </c>
       <c r="L12">
-        <v>1.034747986393466</v>
+        <v>0.8517583197919397</v>
       </c>
       <c r="M12">
-        <v>1.039479418589331</v>
+        <v>0.7957954370930478</v>
       </c>
       <c r="N12">
-        <v>1.0138527281223</v>
+        <v>0.9569692959773649</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023147774275446</v>
+        <v>0.8228451014772855</v>
       </c>
       <c r="D13">
-        <v>1.02507342425928</v>
+        <v>0.8492512626012624</v>
       </c>
       <c r="E13">
-        <v>1.031224512187213</v>
+        <v>0.8372990455890519</v>
       </c>
       <c r="F13">
-        <v>1.035994960132801</v>
+        <v>0.7815099978157025</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024423017021295</v>
+        <v>0.988459405476341</v>
       </c>
       <c r="J13">
-        <v>1.029870263993233</v>
+        <v>0.8625069910093767</v>
       </c>
       <c r="K13">
-        <v>1.028717280268619</v>
+        <v>0.867918864770109</v>
       </c>
       <c r="L13">
-        <v>1.034844932293791</v>
+        <v>0.8563273459155361</v>
       </c>
       <c r="M13">
-        <v>1.039597416854367</v>
+        <v>0.8024284493032093</v>
       </c>
       <c r="N13">
-        <v>1.013883964309158</v>
+        <v>0.9583267560611293</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023519080076398</v>
+        <v>0.8341087637971146</v>
       </c>
       <c r="D14">
-        <v>1.025406838521111</v>
+        <v>0.8592329381333047</v>
       </c>
       <c r="E14">
-        <v>1.031574699631503</v>
+        <v>0.8489293180990751</v>
       </c>
       <c r="F14">
-        <v>1.036413890292804</v>
+        <v>0.7982875839509248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024480723601231</v>
+        <v>0.9930974555434455</v>
       </c>
       <c r="J14">
-        <v>1.030178168374869</v>
+        <v>0.8725325934333316</v>
       </c>
       <c r="K14">
-        <v>1.029017427113265</v>
+        <v>0.8774283257144282</v>
       </c>
       <c r="L14">
-        <v>1.035162025557674</v>
+        <v>0.8674214782624661</v>
       </c>
       <c r="M14">
-        <v>1.039983179277948</v>
+        <v>0.8183946345336178</v>
       </c>
       <c r="N14">
-        <v>1.013986149777962</v>
+        <v>0.9616392808007743</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023747481949644</v>
+        <v>0.8396260073189863</v>
       </c>
       <c r="D15">
-        <v>1.025611932098667</v>
+        <v>0.8641144327636857</v>
       </c>
       <c r="E15">
-        <v>1.03179004332908</v>
+        <v>0.8545818384033667</v>
       </c>
       <c r="F15">
-        <v>1.036671348269388</v>
+        <v>0.8063575145406525</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0245160018584</v>
+        <v>0.995318054723369</v>
       </c>
       <c r="J15">
-        <v>1.030367511075592</v>
+        <v>0.8774110621341914</v>
       </c>
       <c r="K15">
-        <v>1.029202016126633</v>
+        <v>0.8820617868405651</v>
       </c>
       <c r="L15">
-        <v>1.035356972218185</v>
+        <v>0.8727972335817776</v>
       </c>
       <c r="M15">
-        <v>1.04022019825445</v>
+        <v>0.8260646281737648</v>
       </c>
       <c r="N15">
-        <v>1.014048985910909</v>
+        <v>0.9632522499932077</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025071263124915</v>
+        <v>0.8634752244812907</v>
       </c>
       <c r="D16">
-        <v>1.026800621293001</v>
+        <v>0.8851732397686044</v>
       </c>
       <c r="E16">
-        <v>1.033037112555189</v>
+        <v>0.8787356005489803</v>
       </c>
       <c r="F16">
-        <v>1.038159896916519</v>
+        <v>0.8402884658306009</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024717130880048</v>
+        <v>1.004581383864351</v>
       </c>
       <c r="J16">
-        <v>1.031464013915815</v>
+        <v>0.8982919359321816</v>
       </c>
       <c r="K16">
-        <v>1.030271244491141</v>
+        <v>0.9019353331679456</v>
       </c>
       <c r="L16">
-        <v>1.036485218175436</v>
+        <v>0.8956593397015554</v>
       </c>
       <c r="M16">
-        <v>1.041589729358963</v>
+        <v>0.8582483393740103</v>
       </c>
       <c r="N16">
-        <v>1.01441284893718</v>
+        <v>0.9701633419280774</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025896755271934</v>
+        <v>0.8749449940218973</v>
       </c>
       <c r="D17">
-        <v>1.027541870659687</v>
+        <v>0.8952838790420983</v>
       </c>
       <c r="E17">
-        <v>1.03381386369938</v>
+        <v>0.8902136175719236</v>
       </c>
       <c r="F17">
-        <v>1.039084940380523</v>
+        <v>0.8561289542015108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024839609486917</v>
+        <v>1.008861911922405</v>
       </c>
       <c r="J17">
-        <v>1.032146989035638</v>
+        <v>0.9082303168242781</v>
       </c>
       <c r="K17">
-        <v>1.030937455176434</v>
+        <v>0.911416091161568</v>
       </c>
       <c r="L17">
-        <v>1.037187340489521</v>
+        <v>0.9064657190098583</v>
       </c>
       <c r="M17">
-        <v>1.042440064757872</v>
+        <v>0.873237114705773</v>
       </c>
       <c r="N17">
-        <v>1.014639462859229</v>
+        <v>0.9734564229986602</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026376517469418</v>
+        <v>0.8809452960280688</v>
       </c>
       <c r="D18">
-        <v>1.02797267169874</v>
+        <v>0.90057023009223</v>
       </c>
       <c r="E18">
-        <v>1.034264972706947</v>
+        <v>0.8961873099006799</v>
       </c>
       <c r="F18">
-        <v>1.039621410105515</v>
+        <v>0.8643069443585394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024909729045779</v>
+        <v>1.011059315250269</v>
       </c>
       <c r="J18">
-        <v>1.032543638362052</v>
+        <v>0.9134057813734714</v>
       </c>
       <c r="K18">
-        <v>1.03132444897694</v>
+        <v>0.9163584876021698</v>
       </c>
       <c r="L18">
-        <v>1.037594884745109</v>
+        <v>0.9120758393691119</v>
       </c>
       <c r="M18">
-        <v>1.042932938337951</v>
+        <v>0.8809662239289509</v>
       </c>
       <c r="N18">
-        <v>1.014771063929198</v>
+        <v>0.9751721566856064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026539812336336</v>
+        <v>0.8828992208667245</v>
       </c>
       <c r="D19">
-        <v>1.028119301704684</v>
+        <v>0.9022913142623858</v>
       </c>
       <c r="E19">
-        <v>1.034418459742829</v>
+        <v>0.8981282499491186</v>
       </c>
       <c r="F19">
-        <v>1.03980381130804</v>
+        <v>0.8669546863874495</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024933414785606</v>
+        <v>1.011768781611976</v>
       </c>
       <c r="J19">
-        <v>1.032678596168593</v>
+        <v>0.9150877606927168</v>
       </c>
       <c r="K19">
-        <v>1.031456135237507</v>
+        <v>0.9179654782716875</v>
       </c>
       <c r="L19">
-        <v>1.03773351128459</v>
+        <v>0.9138966147357536</v>
       </c>
       <c r="M19">
-        <v>1.043100470803958</v>
+        <v>0.8834672679678633</v>
       </c>
       <c r="N19">
-        <v>1.014815838991409</v>
+        <v>0.9757298723826271</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025808367638961</v>
+        <v>0.8737925750368647</v>
       </c>
       <c r="D20">
-        <v>1.027462503188586</v>
+        <v>0.8942683754769924</v>
       </c>
       <c r="E20">
-        <v>1.033730728634468</v>
+        <v>0.8890639559407146</v>
       </c>
       <c r="F20">
-        <v>1.038986012661765</v>
+        <v>0.8545499719559451</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024826605408214</v>
+        <v>1.008436622483757</v>
       </c>
       <c r="J20">
-        <v>1.032073890530873</v>
+        <v>0.9072345020357788</v>
       </c>
       <c r="K20">
-        <v>1.030866142601187</v>
+        <v>0.9104655279458139</v>
       </c>
       <c r="L20">
-        <v>1.037112215989463</v>
+        <v>0.905384936773498</v>
       </c>
       <c r="M20">
-        <v>1.042349154559873</v>
+        <v>0.8717440748291612</v>
       </c>
       <c r="N20">
-        <v>1.014615209387478</v>
+        <v>0.9731263618700841</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023409817393968</v>
+        <v>0.8311714609880808</v>
       </c>
       <c r="D21">
-        <v>1.025308726033996</v>
+        <v>0.8566321525965092</v>
       </c>
       <c r="E21">
-        <v>1.031471665461338</v>
+        <v>0.8459085912626725</v>
       </c>
       <c r="F21">
-        <v>1.036290663246122</v>
+        <v>0.7939529835142684</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024463788134388</v>
+        <v>0.9919019760494356</v>
       </c>
       <c r="J21">
-        <v>1.030087574870419</v>
+        <v>0.8699270202776047</v>
       </c>
       <c r="K21">
-        <v>1.02892911258971</v>
+        <v>0.8749552220284843</v>
       </c>
       <c r="L21">
-        <v>1.035068738171669</v>
+        <v>0.8645444082437831</v>
       </c>
       <c r="M21">
-        <v>1.039869719973336</v>
+        <v>0.8142722995962235</v>
       </c>
       <c r="N21">
-        <v>1.013956084519799</v>
+        <v>0.9607780854253193</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021885581266746</v>
+        <v>0.8311714609880808</v>
       </c>
       <c r="D22">
-        <v>1.023940037490513</v>
+        <v>0.8566321525965092</v>
       </c>
       <c r="E22">
-        <v>1.030033103529424</v>
+        <v>0.8459085912626725</v>
       </c>
       <c r="F22">
-        <v>1.034567323000504</v>
+        <v>0.7939529835142684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0242236098894</v>
+        <v>0.9919019760494356</v>
       </c>
       <c r="J22">
-        <v>1.028822718284323</v>
+        <v>0.8699270202776047</v>
       </c>
       <c r="K22">
-        <v>1.027696375626781</v>
+        <v>0.8749552220284843</v>
       </c>
       <c r="L22">
-        <v>1.033765431481132</v>
+        <v>0.8645444082437831</v>
       </c>
       <c r="M22">
-        <v>1.038281987341769</v>
+        <v>0.8142722995962235</v>
       </c>
       <c r="N22">
-        <v>1.013536284590724</v>
+        <v>0.9607780854253193</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022695168332372</v>
+        <v>0.8311714609880808</v>
       </c>
       <c r="D23">
-        <v>1.024667006484618</v>
+        <v>0.8566321525965092</v>
       </c>
       <c r="E23">
-        <v>1.030797465964464</v>
+        <v>0.8459085912626725</v>
       </c>
       <c r="F23">
-        <v>1.03548365589721</v>
+        <v>0.7939529835142684</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024352084591047</v>
+        <v>0.9919019760494356</v>
       </c>
       <c r="J23">
-        <v>1.029494782401551</v>
+        <v>0.8699270202776047</v>
       </c>
       <c r="K23">
-        <v>1.028351304006797</v>
+        <v>0.8749552220284843</v>
       </c>
       <c r="L23">
-        <v>1.034458119049775</v>
+        <v>0.8645444082437831</v>
       </c>
       <c r="M23">
-        <v>1.039126444230045</v>
+        <v>0.8142722995962235</v>
       </c>
       <c r="N23">
-        <v>1.013759346888431</v>
+        <v>0.9607780854253193</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025848311557466</v>
+        <v>0.8311714609880808</v>
       </c>
       <c r="D24">
-        <v>1.027498370740167</v>
+        <v>0.8566321525965092</v>
       </c>
       <c r="E24">
-        <v>1.033768299833666</v>
+        <v>0.8459085912626725</v>
       </c>
       <c r="F24">
-        <v>1.039030723388641</v>
+        <v>0.7939529835142684</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02483248546957</v>
+        <v>0.9919019760494356</v>
       </c>
       <c r="J24">
-        <v>1.032106925904836</v>
+        <v>0.8699270202776047</v>
       </c>
       <c r="K24">
-        <v>1.030898370610973</v>
+        <v>0.8749552220284843</v>
       </c>
       <c r="L24">
-        <v>1.037146167667583</v>
+        <v>0.8645444082437831</v>
       </c>
       <c r="M24">
-        <v>1.042390242576918</v>
+        <v>0.8142722995962235</v>
       </c>
       <c r="N24">
-        <v>1.014626170275145</v>
+        <v>0.9607780854253193</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029439614656974</v>
+        <v>0.8311714609880808</v>
       </c>
       <c r="D25">
-        <v>1.030723151865712</v>
+        <v>0.8566321525965092</v>
       </c>
       <c r="E25">
-        <v>1.037139284585103</v>
+        <v>0.8459085912626725</v>
       </c>
       <c r="F25">
-        <v>1.043025948746921</v>
+        <v>0.7939529835142684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025338248163195</v>
+        <v>0.9919019760494356</v>
       </c>
       <c r="J25">
-        <v>1.035070986013849</v>
+        <v>0.8699270202776047</v>
       </c>
       <c r="K25">
-        <v>1.033791722185767</v>
+        <v>0.8749552220284843</v>
       </c>
       <c r="L25">
-        <v>1.040187610817905</v>
+        <v>0.8645444082437831</v>
       </c>
       <c r="M25">
-        <v>1.046055940755048</v>
+        <v>0.8142722995962235</v>
       </c>
       <c r="N25">
-        <v>1.015609433032043</v>
+        <v>0.9607780854253193</v>
       </c>
     </row>
   </sheetData>
